--- a/final_proj/data/kaggle_data_desc.xlsx
+++ b/final_proj/data/kaggle_data_desc.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuadollison/code/MSAIB/CIS508/final_proj/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECCF4F3-2432-2843-B55A-4E84E67F2308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E322D3A-71D1-3E4C-81A4-2BF9F1AFEE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2240" windowWidth="24960" windowHeight="15760" activeTab="1" xr2:uid="{E0D17C7C-0BF3-F14C-8A29-30671899D3AF}"/>
+    <workbookView xWindow="4440" yWindow="2240" windowWidth="24960" windowHeight="15760" activeTab="2" xr2:uid="{E0D17C7C-0BF3-F14C-8A29-30671899D3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
     <sheet name="horses" sheetId="1" r:id="rId2"/>
     <sheet name="races" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51684290-D3DE-4342-A512-74666697EFE5}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47864C94-116C-8F4D-B9D9-8F9A2ABDBB9D}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1461,7 +1461,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G28" si="0">_xlfn.XLOOKUP(A3, D:D, E:E, A3)</f>
+        <f t="shared" ref="G3:G19" si="0">_xlfn.XLOOKUP(A3, D:D, E:E, A3)</f>
         <v>course</v>
       </c>
     </row>
